--- a/import/template/item.xlsx
+++ b/import/template/item.xlsx
@@ -7,17 +7,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="input_item" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>kode</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nama Item</t>
   </si>
@@ -34,16 +31,34 @@
     <t>Kategori</t>
   </si>
   <si>
-    <t>foto</t>
-  </si>
-  <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t>keterangan</t>
-  </si>
-  <si>
-    <t>ITEM UPLOAD IN EXCEL TEMPLATE</t>
+    <t>UPLOAD ITEM IN EXCEL FORMAT</t>
+  </si>
+  <si>
+    <t>Kode</t>
+  </si>
+  <si>
+    <t>Foto</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>item/x/ac/8</t>
+  </si>
+  <si>
+    <t>item/x/a2/c4</t>
+  </si>
+  <si>
+    <t>item/x/cb/5</t>
+  </si>
+  <si>
+    <t>item/x/f/6</t>
+  </si>
+  <si>
+    <t>item/x/b3/c7</t>
   </si>
 </sst>
 </file>
@@ -95,11 +110,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I11"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,84 +432,84 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="5" width="16.140625" customWidth="1"/>
+    <col min="4" max="5" width="16.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/import/template/item.xlsx
+++ b/import/template/item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Nama Item</t>
   </si>
@@ -46,19 +46,28 @@
     <t>Keterangan</t>
   </si>
   <si>
-    <t>item/x/ac/8</t>
-  </si>
-  <si>
-    <t>item/x/a2/c4</t>
-  </si>
-  <si>
-    <t>item/x/cb/5</t>
-  </si>
-  <si>
-    <t>item/x/f/6</t>
-  </si>
-  <si>
-    <t>item/x/b3/c7</t>
+    <t>Hic saepe dolores vitae magni id.</t>
+  </si>
+  <si>
+    <t>'dus'</t>
+  </si>
+  <si>
+    <t>electronik/hp/laptop</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="color: rgb(0, 0, 0); font-family: &amp;quot;Source Sans Pro&amp;quot;; font-size: 14px; text-align: justify;"&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum&lt;/span&gt;&lt;span style="font-family: &amp;quot;Source Sans Pro&amp;quot;;"&gt;﻿&lt;/span&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Tenetur minima vel qui quidem rerum dolorem.</t>
+  </si>
+  <si>
+    <t>Aut corporis et inventore doloremque.</t>
+  </si>
+  <si>
+    <t>'pcs'</t>
+  </si>
+  <si>
+    <t>electronik/hp</t>
   </si>
 </sst>
 </file>
@@ -110,10 +119,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +440,7 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="5" width="16.140625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
@@ -440,17 +448,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -462,10 +470,10 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -482,34 +490,73 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>87123</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5700000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5130000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>99851</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>2700000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2430000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A7">
+        <v>52401</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2700000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2430000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
